--- a/Dispute_Mode.xlsx
+++ b/Dispute_Mode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DadosShift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569DB977-5A73-4C8F-9E5A-20F042804C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB529DA-C656-4460-9991-F54101F8D8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>MODO DE DISPUTA ABERTO</t>
   </si>
@@ -55,13 +55,40 @@
   </si>
   <si>
     <t>Des_Disputa</t>
+  </si>
+  <si>
+    <t>ObsDisputa</t>
+  </si>
+  <si>
+    <t>LEILÃO APÓS O TÉRMINO DO ENVIO DAS PROPOSTAS</t>
+  </si>
+  <si>
+    <t>VENCEDOR PELA MELHOR PROPOSTA</t>
+  </si>
+  <si>
+    <t>LEILÃO APÓS O TÉRMINO DO ENVIO DAS PROPOSTAS ATÉ 50MIL</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ENVELOPE</t>
+  </si>
+  <si>
+    <t>LEILÃO</t>
+  </si>
+  <si>
+    <t>Obscurta</t>
+  </si>
+  <si>
+    <t>Foda-se</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,18 +97,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color rgb="FF202124"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,10 +135,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,55 +426,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>7</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
